--- a/biology/Botanique/Cardamine_diphylla/Cardamine_diphylla.xlsx
+++ b/biology/Botanique/Cardamine_diphylla/Cardamine_diphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine diphylla
 La Cardamine carcajou, Cardamine diphylla (Michaux) Wood, est une espèce de plantes à fleurs de la famille des Brassicacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette cardamine est une plante herbacée pérenne.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est située dans l'est de l'Amérique du Nord. On la retrouve dans la vallée du Saint-Laurent et des Grands Lacs ainsi que dans les Appalaches, du Mississippi à l'île du Cap-Breton[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est située dans l'est de l'Amérique du Nord. On la retrouve dans la vallée du Saint-Laurent et des Grands Lacs ainsi que dans les Appalaches, du Mississippi à l'île du Cap-Breton.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Menace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est classée vulnérable au Québec. Bien que sa disparition ne soit pas appréhendée dans cette province pour l'instant, l'existence de certaines menaces, comme le broutage par le Cerf de Virginie, la coupe forestière et l'étalement urbain et agricole pourraient la menacer à long terme[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est classée vulnérable au Québec. Bien que sa disparition ne soit pas appréhendée dans cette province pour l'instant, l'existence de certaines menaces, comme le broutage par le Cerf de Virginie, la coupe forestière et l'étalement urbain et agricole pourraient la menacer à long terme.
 </t>
         </is>
       </c>
